--- a/canteen/Сентябрь(10_8).xlsx
+++ b/canteen/Сентябрь(10_8).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>День</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>плов</t>
   </si>
   <si>
     <t>плов + 🍅</t>
@@ -366,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,7 +385,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -397,20 +394,6 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
         <v>23.56</v>
       </c>
     </row>
